--- a/Shiny/Dati/Sacche_glucosata.xlsx
+++ b/Shiny/Dati/Sacche_glucosata.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MODUNIVAR\Shiny\Dati\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF64E9-23B8-4E91-B87E-1AD4B44533F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
+    <workbookView xWindow="1920" yWindow="204" windowWidth="9924" windowHeight="12756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,14 +27,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Glucosio totale (mg/L)</t>
+    <t>Glucosio.totale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +75,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -350,122 +355,117 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5">
+    <row r="2" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="19.5">
+    <row r="3" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="19.5">
+    <row r="4" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="19.5">
+    <row r="5" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="19.5">
+    <row r="6" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19.5">
+    <row r="7" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="19.5">
+    <row r="8" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="19.5">
+    <row r="9" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="19.5">
+    <row r="10" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="19.5">
+    <row r="11" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="19.5">
+    <row r="12" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="19.5">
+    <row r="13" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="19.5">
+    <row r="14" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="19.5">
+    <row r="15" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="19.5">
+    <row r="16" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="19.5">
+    <row r="17" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="19.5">
+    <row r="18" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="19.5">
+    <row r="19" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
